--- a/Boards/Single_board/BOM/JLC_Top.xlsx
+++ b/Boards/Single_board/BOM/JLC_Top.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Comment</t>
   </si>
@@ -106,6 +106,9 @@
     <t>D=3mm THT White led</t>
   </si>
   <si>
+    <t>C2895458</t>
+  </si>
+  <si>
     <t>R2,R31,R32,R30,R3,R34,R29,R22,R26,R16,R19,R12,R9,R14,R13,R27,R25,R23,R17,R24,R21,R15,R20,R10,R18,R11</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t>1206 Orange LED</t>
   </si>
   <si>
-    <t>C264537</t>
+    <t>C2764895</t>
   </si>
   <si>
     <t>Keyboard switches</t>
@@ -154,6 +157,9 @@
     <t>MX</t>
   </si>
   <si>
+    <t>C5120587</t>
+  </si>
+  <si>
     <t>R42,R37,R40,R39,R38,R35,R36,R41,R43</t>
   </si>
   <si>
@@ -187,10 +193,10 @@
     <t>D34</t>
   </si>
   <si>
-    <t>SD101AWS Diode</t>
-  </si>
-  <si>
-    <t>C2992004</t>
+    <t>MBR0520LT1G</t>
+  </si>
+  <si>
+    <t>C23848</t>
   </si>
   <si>
     <t>U1</t>
@@ -921,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +939,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1470,7 +1479,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1520,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1530,207 +1539,213 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:2">

--- a/Boards/Single_board/BOM/JLC_Top.xlsx
+++ b/Boards/Single_board/BOM/JLC_Top.xlsx
@@ -136,7 +136,7 @@
     <t>1206 White LED</t>
   </si>
   <si>
-    <t>C375565</t>
+    <t>C412285</t>
   </si>
   <si>
     <t>D33,D29,D28,D27,D26,D30,D31,D25,D32</t>
@@ -1479,7 +1479,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/Boards/Single_board/BOM/JLC_Top.xlsx
+++ b/Boards/Single_board/BOM/JLC_Top.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28224"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_000B5EC8CDE5FC84A9EECF0B7E54C3ED565E6C24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{067D17A9-A0EE-406E-BD05-0EF99E04EBAC}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -283,14 +287,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,351 +310,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFAFABAB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -679,354 +347,178 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Coma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
-    <cellStyle name="Nota" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Salida" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
-    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1037,7 +529,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1065,154 +557,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1470,27 +848,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="93.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="57.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="93.5" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
+    <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +886,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1518,8 +896,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -1533,7 +911,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
@@ -1543,8 +921,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
@@ -1558,7 +936,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -1568,8 +946,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
@@ -1579,8 +957,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -1594,7 +972,7 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
@@ -1604,8 +982,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
@@ -1615,8 +993,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
@@ -1626,8 +1004,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
@@ -1641,18 +1019,18 @@
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
@@ -1662,8 +1040,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15" t="s">
@@ -1677,7 +1055,7 @@
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" t="s">
@@ -1687,8 +1065,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17" t="s">
@@ -1698,8 +1076,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
@@ -1709,8 +1087,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
@@ -1724,7 +1102,7 @@
       <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
@@ -1738,7 +1116,7 @@
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
       <c r="C21" t="s">
@@ -1748,17 +1126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>